--- a/data/neut_plate_reader_data/HC150036.xlsx
+++ b/data/neut_plate_reader_data/HC150036.xlsx
@@ -1,28 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10307"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/fh/fast/bloom_j/computational_notebooks/reguia/2020/validation/data/neut_plate_reader_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172A3D63-03B4-124E-B3F3-A0CDA72CFB3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="27800" windowHeight="12580" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F193D" sheetId="5" r:id="rId1"/>
     <sheet name="K189D" sheetId="4" r:id="rId2"/>
     <sheet name="F193F" sheetId="3" r:id="rId3"/>
     <sheet name="WT" sheetId="2" r:id="rId4"/>
+    <sheet name="I192E" sheetId="6" r:id="rId5"/>
+    <sheet name="F159G" sheetId="7" r:id="rId6"/>
+    <sheet name="WT2" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Eguia, Rachel T</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -30,7 +39,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
 Tecan.At.Common.DocumentManagement, 3.3.10.0
@@ -84,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -92,7 +101,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -108,12 +117,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Eguia, Rachel T</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -121,7 +130,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
 Tecan.At.Common.DocumentManagement, 3.3.10.0
@@ -175,7 +184,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -183,7 +192,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -199,12 +208,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Eguia, Rachel T</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -212,7 +221,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
 Tecan.At.Common.DocumentManagement, 3.3.10.0
@@ -266,7 +275,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -274,7 +283,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -290,12 +299,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Eguia, Rachel T</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -303,7 +312,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
 Tecan.At.Common.DocumentManagement, 3.3.10.0
@@ -357,7 +366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -365,7 +374,280 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -381,7 +663,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="74">
   <si>
     <t>Application: Tecan i-control</t>
   </si>
@@ -567,12 +849,48 @@
   </si>
   <si>
     <t>3/21/2020 12:34:08 PM</t>
+  </si>
+  <si>
+    <t>5/2/2020 9:50:15 AM</t>
+  </si>
+  <si>
+    <t>Temperature: 23.4 °C</t>
+  </si>
+  <si>
+    <t>5/2/2020 9:49:19 AM</t>
+  </si>
+  <si>
+    <t>9:48:20 AM</t>
+  </si>
+  <si>
+    <t>5/2/2020 9:47:54 AM</t>
+  </si>
+  <si>
+    <t>Temperature: 23.3 °C</t>
+  </si>
+  <si>
+    <t>5/2/2020 9:46:58 AM</t>
+  </si>
+  <si>
+    <t>9:45:55 AM</t>
+  </si>
+  <si>
+    <t>5/2/2020 9:45:25 AM</t>
+  </si>
+  <si>
+    <t>Temperature: 23.2 °C</t>
+  </si>
+  <si>
+    <t>5/2/2020 9:44:29 AM</t>
+  </si>
+  <si>
+    <t>9:43:30 AM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -600,10 +918,10 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -654,60 +972,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7FFFD4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6495ED"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF32CD32"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9ACD32"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8FBC8B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDEB887"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4A460"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD2691E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFA500"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF808080"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -736,23 +1000,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Tecan.At.Excel.Attenuation" xfId="6"/>
-    <cellStyle name="Tecan.At.Excel.AutoGain_0" xfId="7"/>
-    <cellStyle name="Tecan.At.Excel.Error" xfId="1"/>
-    <cellStyle name="Tecan.At.Excel.GFactorAndMeasurementBlank" xfId="5"/>
-    <cellStyle name="Tecan.At.Excel.GFactorBlank" xfId="3"/>
-    <cellStyle name="Tecan.At.Excel.GFactorReference" xfId="4"/>
-    <cellStyle name="Tecan.At.Excel.MeasurementBlank" xfId="2"/>
+    <cellStyle name="Tecan.At.Excel.Attenuation" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Tecan.At.Excel.AutoGain_0" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Tecan.At.Excel.Error" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Tecan.At.Excel.GFactorAndMeasurementBlank" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Tecan.At.Excel.GFactorBlank" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Tecan.At.Excel.GFactorReference" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Tecan.At.Excel.MeasurementBlank" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -801,7 +1068,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -834,9 +1101,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -869,6 +1153,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1044,14 +1345,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1059,7 +1360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1067,7 +1368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1075,7 +1376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1083,7 +1384,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1091,7 +1392,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1099,7 +1400,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1107,7 +1408,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1115,17 +1416,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1133,12 +1434,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1149,7 +1450,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1160,7 +1461,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1171,7 +1472,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1182,7 +1483,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1193,7 +1494,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1204,7 +1505,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1215,7 +1516,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1226,7 +1527,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1237,7 +1538,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1248,7 +1549,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1256,12 +1557,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -1302,7 +1603,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -1343,7 +1644,7 @@
         <v>8303</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
@@ -1384,7 +1685,7 @@
         <v>11309</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
@@ -1425,7 +1726,7 @@
         <v>35225</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>43</v>
       </c>
@@ -1466,7 +1767,7 @@
         <v>12216</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>44</v>
       </c>
@@ -1507,7 +1808,7 @@
         <v>12162</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -1548,7 +1849,7 @@
         <v>12157</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
@@ -1589,7 +1890,7 @@
         <v>31862</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
@@ -1630,7 +1931,7 @@
         <v>7876</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -1645,14 +1946,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1660,7 +1961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1668,7 +1969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1676,7 +1977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1684,7 +1985,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1692,7 +1993,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1700,7 +2001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1708,7 +2009,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1716,17 +2017,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1734,12 +2035,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1750,7 +2051,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1761,7 +2062,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1772,7 +2073,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1783,7 +2084,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1794,7 +2095,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1805,7 +2106,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1816,7 +2117,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1827,7 +2128,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1838,7 +2139,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1849,7 +2150,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1857,12 +2158,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -1903,7 +2204,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -1944,7 +2245,7 @@
         <v>9894</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
@@ -1985,7 +2286,7 @@
         <v>12983</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
@@ -2026,7 +2327,7 @@
         <v>34751</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>43</v>
       </c>
@@ -2067,7 +2368,7 @@
         <v>13974</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>44</v>
       </c>
@@ -2108,7 +2409,7 @@
         <v>14021</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -2149,7 +2450,7 @@
         <v>13863</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
@@ -2190,7 +2491,7 @@
         <v>32762</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
@@ -2231,7 +2532,7 @@
         <v>9309</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -2246,14 +2547,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2261,7 +2562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2269,7 +2570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2277,7 +2578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2285,7 +2586,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2293,7 +2594,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2301,7 +2602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2309,7 +2610,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2317,17 +2618,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2335,12 +2636,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2351,7 +2652,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2362,7 +2663,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2373,7 +2674,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2384,7 +2685,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2395,7 +2696,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2406,7 +2707,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -2417,7 +2718,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2428,7 +2729,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2439,7 +2740,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -2450,7 +2751,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -2458,12 +2759,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -2504,7 +2805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -2545,7 +2846,7 @@
         <v>10895</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
@@ -2586,7 +2887,7 @@
         <v>14564</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
@@ -2627,7 +2928,7 @@
         <v>38239</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>43</v>
       </c>
@@ -2668,7 +2969,7 @@
         <v>15294</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>44</v>
       </c>
@@ -2709,7 +3010,7 @@
         <v>15439</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -2750,7 +3051,7 @@
         <v>15241</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
@@ -2791,7 +3092,7 @@
         <v>35043</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
@@ -2832,7 +3133,7 @@
         <v>10289</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -2847,14 +3148,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2862,7 +3163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2870,7 +3171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2878,7 +3179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2886,7 +3187,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2894,7 +3195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2902,7 +3203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2910,7 +3211,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2918,17 +3219,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2936,12 +3237,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2952,7 +3253,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2963,7 +3264,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2974,7 +3275,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2985,7 +3286,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2996,7 +3297,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -3007,7 +3308,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -3018,7 +3319,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -3029,7 +3330,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -3040,7 +3341,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -3051,7 +3352,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3059,12 +3360,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -3105,7 +3406,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -3146,7 +3447,7 @@
         <v>14060</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
@@ -3187,7 +3488,7 @@
         <v>18414</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
@@ -3228,7 +3529,7 @@
         <v>37309</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>43</v>
       </c>
@@ -3269,7 +3570,7 @@
         <v>19582</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>44</v>
       </c>
@@ -3310,7 +3611,7 @@
         <v>19572</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -3351,7 +3652,7 @@
         <v>19453</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
@@ -3392,7 +3693,7 @@
         <v>35903</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
@@ -3433,12 +3734,1815 @@
         <v>13784</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>48</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E8D2A4-5873-7245-854A-E9C778FA63A9}">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>114</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>18164</v>
+      </c>
+      <c r="C32">
+        <v>18295</v>
+      </c>
+      <c r="D32">
+        <v>18375</v>
+      </c>
+      <c r="E32">
+        <v>18352</v>
+      </c>
+      <c r="F32">
+        <v>18307</v>
+      </c>
+      <c r="G32">
+        <v>18504</v>
+      </c>
+      <c r="H32">
+        <v>18555</v>
+      </c>
+      <c r="I32">
+        <v>18513</v>
+      </c>
+      <c r="J32">
+        <v>18245</v>
+      </c>
+      <c r="K32">
+        <v>18277</v>
+      </c>
+      <c r="L32">
+        <v>18106</v>
+      </c>
+      <c r="M32">
+        <v>18058</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>23914</v>
+      </c>
+      <c r="C33">
+        <v>23321</v>
+      </c>
+      <c r="D33">
+        <v>23202</v>
+      </c>
+      <c r="E33">
+        <v>23203</v>
+      </c>
+      <c r="F33">
+        <v>23641</v>
+      </c>
+      <c r="G33">
+        <v>23434</v>
+      </c>
+      <c r="H33">
+        <v>23632</v>
+      </c>
+      <c r="I33">
+        <v>23825</v>
+      </c>
+      <c r="J33">
+        <v>23222</v>
+      </c>
+      <c r="K33">
+        <v>23843</v>
+      </c>
+      <c r="L33">
+        <v>23537</v>
+      </c>
+      <c r="M33">
+        <v>23322</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>39599</v>
+      </c>
+      <c r="C34">
+        <v>40789</v>
+      </c>
+      <c r="D34">
+        <v>40784</v>
+      </c>
+      <c r="E34">
+        <v>39574</v>
+      </c>
+      <c r="F34">
+        <v>40658</v>
+      </c>
+      <c r="G34">
+        <v>41226</v>
+      </c>
+      <c r="H34">
+        <v>42452</v>
+      </c>
+      <c r="I34">
+        <v>43052</v>
+      </c>
+      <c r="J34">
+        <v>41192</v>
+      </c>
+      <c r="K34">
+        <v>40171</v>
+      </c>
+      <c r="L34">
+        <v>39343</v>
+      </c>
+      <c r="M34">
+        <v>41077</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>41331</v>
+      </c>
+      <c r="C35">
+        <v>40983</v>
+      </c>
+      <c r="D35">
+        <v>40027</v>
+      </c>
+      <c r="E35">
+        <v>40447</v>
+      </c>
+      <c r="F35">
+        <v>38882</v>
+      </c>
+      <c r="G35">
+        <v>36538</v>
+      </c>
+      <c r="H35">
+        <v>31920</v>
+      </c>
+      <c r="I35">
+        <v>27211</v>
+      </c>
+      <c r="J35">
+        <v>22958</v>
+      </c>
+      <c r="K35">
+        <v>22468</v>
+      </c>
+      <c r="L35">
+        <v>23501</v>
+      </c>
+      <c r="M35">
+        <v>25654</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>39647</v>
+      </c>
+      <c r="C36">
+        <v>40648</v>
+      </c>
+      <c r="D36">
+        <v>39665</v>
+      </c>
+      <c r="E36">
+        <v>37704</v>
+      </c>
+      <c r="F36">
+        <v>38496</v>
+      </c>
+      <c r="G36">
+        <v>36073</v>
+      </c>
+      <c r="H36">
+        <v>31351</v>
+      </c>
+      <c r="I36">
+        <v>26144</v>
+      </c>
+      <c r="J36">
+        <v>22874</v>
+      </c>
+      <c r="K36">
+        <v>22511</v>
+      </c>
+      <c r="L36">
+        <v>23401</v>
+      </c>
+      <c r="M36">
+        <v>25917</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>39908</v>
+      </c>
+      <c r="C37">
+        <v>39744</v>
+      </c>
+      <c r="D37">
+        <v>40414</v>
+      </c>
+      <c r="E37">
+        <v>39281</v>
+      </c>
+      <c r="F37">
+        <v>37972</v>
+      </c>
+      <c r="G37">
+        <v>35323</v>
+      </c>
+      <c r="H37">
+        <v>31334</v>
+      </c>
+      <c r="I37">
+        <v>26350</v>
+      </c>
+      <c r="J37">
+        <v>22383</v>
+      </c>
+      <c r="K37">
+        <v>22394</v>
+      </c>
+      <c r="L37">
+        <v>23394</v>
+      </c>
+      <c r="M37">
+        <v>25810</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>41499</v>
+      </c>
+      <c r="C38">
+        <v>39094</v>
+      </c>
+      <c r="D38">
+        <v>40819</v>
+      </c>
+      <c r="E38">
+        <v>40770</v>
+      </c>
+      <c r="F38">
+        <v>40098</v>
+      </c>
+      <c r="G38">
+        <v>39575</v>
+      </c>
+      <c r="H38">
+        <v>40596</v>
+      </c>
+      <c r="I38">
+        <v>40043</v>
+      </c>
+      <c r="J38">
+        <v>40750</v>
+      </c>
+      <c r="K38">
+        <v>39328</v>
+      </c>
+      <c r="L38">
+        <v>40035</v>
+      </c>
+      <c r="M38">
+        <v>39630</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>16612</v>
+      </c>
+      <c r="C39">
+        <v>16941</v>
+      </c>
+      <c r="D39">
+        <v>16865</v>
+      </c>
+      <c r="E39">
+        <v>16919</v>
+      </c>
+      <c r="F39">
+        <v>17194</v>
+      </c>
+      <c r="G39">
+        <v>17232</v>
+      </c>
+      <c r="H39">
+        <v>17375</v>
+      </c>
+      <c r="I39">
+        <v>17193</v>
+      </c>
+      <c r="J39">
+        <v>17184</v>
+      </c>
+      <c r="K39">
+        <v>17068</v>
+      </c>
+      <c r="L39">
+        <v>16878</v>
+      </c>
+      <c r="M39">
+        <v>16886</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD3A4E1-0F73-C242-8DBF-A44B1CE7BB38}">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>97</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>5516</v>
+      </c>
+      <c r="C32">
+        <v>5550</v>
+      </c>
+      <c r="D32">
+        <v>5515</v>
+      </c>
+      <c r="E32">
+        <v>5587</v>
+      </c>
+      <c r="F32">
+        <v>5512</v>
+      </c>
+      <c r="G32">
+        <v>5623</v>
+      </c>
+      <c r="H32">
+        <v>5652</v>
+      </c>
+      <c r="I32">
+        <v>5710</v>
+      </c>
+      <c r="J32">
+        <v>5600</v>
+      </c>
+      <c r="K32">
+        <v>5668</v>
+      </c>
+      <c r="L32">
+        <v>5540</v>
+      </c>
+      <c r="M32">
+        <v>5786</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>7652</v>
+      </c>
+      <c r="C33">
+        <v>7489</v>
+      </c>
+      <c r="D33">
+        <v>7489</v>
+      </c>
+      <c r="E33">
+        <v>7534</v>
+      </c>
+      <c r="F33">
+        <v>7603</v>
+      </c>
+      <c r="G33">
+        <v>7541</v>
+      </c>
+      <c r="H33">
+        <v>7564</v>
+      </c>
+      <c r="I33">
+        <v>7698</v>
+      </c>
+      <c r="J33">
+        <v>7574</v>
+      </c>
+      <c r="K33">
+        <v>7505</v>
+      </c>
+      <c r="L33">
+        <v>7619</v>
+      </c>
+      <c r="M33">
+        <v>7583</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>32021</v>
+      </c>
+      <c r="C34">
+        <v>33921</v>
+      </c>
+      <c r="D34">
+        <v>33952</v>
+      </c>
+      <c r="E34">
+        <v>32223</v>
+      </c>
+      <c r="F34">
+        <v>33352</v>
+      </c>
+      <c r="G34">
+        <v>33455</v>
+      </c>
+      <c r="H34">
+        <v>34129</v>
+      </c>
+      <c r="I34">
+        <v>34270</v>
+      </c>
+      <c r="J34">
+        <v>32751</v>
+      </c>
+      <c r="K34">
+        <v>33528</v>
+      </c>
+      <c r="L34">
+        <v>34963</v>
+      </c>
+      <c r="M34">
+        <v>29298</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>34765</v>
+      </c>
+      <c r="C35">
+        <v>32734</v>
+      </c>
+      <c r="D35">
+        <v>32721</v>
+      </c>
+      <c r="E35">
+        <v>31839</v>
+      </c>
+      <c r="F35">
+        <v>32709</v>
+      </c>
+      <c r="G35">
+        <v>30760</v>
+      </c>
+      <c r="H35">
+        <v>29364</v>
+      </c>
+      <c r="I35">
+        <v>24864</v>
+      </c>
+      <c r="J35">
+        <v>16621</v>
+      </c>
+      <c r="K35">
+        <v>9739</v>
+      </c>
+      <c r="L35">
+        <v>7794</v>
+      </c>
+      <c r="M35">
+        <v>8125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>30941</v>
+      </c>
+      <c r="C36">
+        <v>33417</v>
+      </c>
+      <c r="D36">
+        <v>31286</v>
+      </c>
+      <c r="E36">
+        <v>31593</v>
+      </c>
+      <c r="F36">
+        <v>31822</v>
+      </c>
+      <c r="G36">
+        <v>30471</v>
+      </c>
+      <c r="H36">
+        <v>29797</v>
+      </c>
+      <c r="I36">
+        <v>24316</v>
+      </c>
+      <c r="J36">
+        <v>16098</v>
+      </c>
+      <c r="K36">
+        <v>9196</v>
+      </c>
+      <c r="L36">
+        <v>7711</v>
+      </c>
+      <c r="M36">
+        <v>8161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>30615</v>
+      </c>
+      <c r="C37">
+        <v>30645</v>
+      </c>
+      <c r="D37">
+        <v>30737</v>
+      </c>
+      <c r="E37">
+        <v>30040</v>
+      </c>
+      <c r="F37">
+        <v>30064</v>
+      </c>
+      <c r="G37">
+        <v>29789</v>
+      </c>
+      <c r="H37">
+        <v>27897</v>
+      </c>
+      <c r="I37">
+        <v>24251</v>
+      </c>
+      <c r="J37">
+        <v>16513</v>
+      </c>
+      <c r="K37">
+        <v>9075</v>
+      </c>
+      <c r="L37">
+        <v>7759</v>
+      </c>
+      <c r="M37">
+        <v>8030</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>29287</v>
+      </c>
+      <c r="C38">
+        <v>30983</v>
+      </c>
+      <c r="D38">
+        <v>31167</v>
+      </c>
+      <c r="E38">
+        <v>30386</v>
+      </c>
+      <c r="F38">
+        <v>32006</v>
+      </c>
+      <c r="G38">
+        <v>32432</v>
+      </c>
+      <c r="H38">
+        <v>32270</v>
+      </c>
+      <c r="I38">
+        <v>32390</v>
+      </c>
+      <c r="J38">
+        <v>33358</v>
+      </c>
+      <c r="K38">
+        <v>31252</v>
+      </c>
+      <c r="L38">
+        <v>32406</v>
+      </c>
+      <c r="M38">
+        <v>27795</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>4925</v>
+      </c>
+      <c r="C39">
+        <v>5015</v>
+      </c>
+      <c r="D39">
+        <v>4967</v>
+      </c>
+      <c r="E39">
+        <v>4986</v>
+      </c>
+      <c r="F39">
+        <v>5043</v>
+      </c>
+      <c r="G39">
+        <v>5085</v>
+      </c>
+      <c r="H39">
+        <v>5168</v>
+      </c>
+      <c r="I39">
+        <v>5098</v>
+      </c>
+      <c r="J39">
+        <v>5253</v>
+      </c>
+      <c r="K39">
+        <v>5183</v>
+      </c>
+      <c r="L39">
+        <v>5134</v>
+      </c>
+      <c r="M39">
+        <v>5074</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C788465F-0321-CE47-A781-0E404FFBD98A}">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>113</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>16881</v>
+      </c>
+      <c r="C32">
+        <v>16562</v>
+      </c>
+      <c r="D32">
+        <v>16816</v>
+      </c>
+      <c r="E32">
+        <v>16900</v>
+      </c>
+      <c r="F32">
+        <v>17219</v>
+      </c>
+      <c r="G32">
+        <v>17817</v>
+      </c>
+      <c r="H32">
+        <v>17331</v>
+      </c>
+      <c r="I32">
+        <v>17162</v>
+      </c>
+      <c r="J32">
+        <v>16941</v>
+      </c>
+      <c r="K32">
+        <v>17354</v>
+      </c>
+      <c r="L32">
+        <v>16909</v>
+      </c>
+      <c r="M32">
+        <v>16718</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>20611</v>
+      </c>
+      <c r="C33">
+        <v>20220</v>
+      </c>
+      <c r="D33">
+        <v>20475</v>
+      </c>
+      <c r="E33">
+        <v>20444</v>
+      </c>
+      <c r="F33">
+        <v>20802</v>
+      </c>
+      <c r="G33">
+        <v>20853</v>
+      </c>
+      <c r="H33">
+        <v>20738</v>
+      </c>
+      <c r="I33">
+        <v>20973</v>
+      </c>
+      <c r="J33">
+        <v>20973</v>
+      </c>
+      <c r="K33">
+        <v>20709</v>
+      </c>
+      <c r="L33">
+        <v>20697</v>
+      </c>
+      <c r="M33">
+        <v>21324</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>40012</v>
+      </c>
+      <c r="C34">
+        <v>39238</v>
+      </c>
+      <c r="D34">
+        <v>39314</v>
+      </c>
+      <c r="E34">
+        <v>39293</v>
+      </c>
+      <c r="F34">
+        <v>39288</v>
+      </c>
+      <c r="G34">
+        <v>39695</v>
+      </c>
+      <c r="H34">
+        <v>39881</v>
+      </c>
+      <c r="I34">
+        <v>41078</v>
+      </c>
+      <c r="J34">
+        <v>38829</v>
+      </c>
+      <c r="K34">
+        <v>39645</v>
+      </c>
+      <c r="L34">
+        <v>39692</v>
+      </c>
+      <c r="M34">
+        <v>41507</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>38445</v>
+      </c>
+      <c r="C35">
+        <v>39533</v>
+      </c>
+      <c r="D35">
+        <v>38004</v>
+      </c>
+      <c r="E35">
+        <v>37001</v>
+      </c>
+      <c r="F35">
+        <v>35506</v>
+      </c>
+      <c r="G35">
+        <v>32866</v>
+      </c>
+      <c r="H35">
+        <v>27887</v>
+      </c>
+      <c r="I35">
+        <v>21772</v>
+      </c>
+      <c r="J35">
+        <v>20010</v>
+      </c>
+      <c r="K35">
+        <v>20448</v>
+      </c>
+      <c r="L35">
+        <v>21258</v>
+      </c>
+      <c r="M35">
+        <v>23102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>37016</v>
+      </c>
+      <c r="C36">
+        <v>38801</v>
+      </c>
+      <c r="D36">
+        <v>38029</v>
+      </c>
+      <c r="E36">
+        <v>36077</v>
+      </c>
+      <c r="F36">
+        <v>34753</v>
+      </c>
+      <c r="G36">
+        <v>31890</v>
+      </c>
+      <c r="H36">
+        <v>27476</v>
+      </c>
+      <c r="I36">
+        <v>21265</v>
+      </c>
+      <c r="J36">
+        <v>20065</v>
+      </c>
+      <c r="K36">
+        <v>20114</v>
+      </c>
+      <c r="L36">
+        <v>21053</v>
+      </c>
+      <c r="M36">
+        <v>23344</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>39344</v>
+      </c>
+      <c r="C37">
+        <v>37720</v>
+      </c>
+      <c r="D37">
+        <v>36771</v>
+      </c>
+      <c r="E37">
+        <v>34335</v>
+      </c>
+      <c r="F37">
+        <v>35193</v>
+      </c>
+      <c r="G37">
+        <v>33024</v>
+      </c>
+      <c r="H37">
+        <v>26786</v>
+      </c>
+      <c r="I37">
+        <v>20790</v>
+      </c>
+      <c r="J37">
+        <v>20017</v>
+      </c>
+      <c r="K37">
+        <v>20042</v>
+      </c>
+      <c r="L37">
+        <v>21581</v>
+      </c>
+      <c r="M37">
+        <v>23120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>38090</v>
+      </c>
+      <c r="C38">
+        <v>38229</v>
+      </c>
+      <c r="D38">
+        <v>38268</v>
+      </c>
+      <c r="E38">
+        <v>37622</v>
+      </c>
+      <c r="F38">
+        <v>36374</v>
+      </c>
+      <c r="G38">
+        <v>35860</v>
+      </c>
+      <c r="H38">
+        <v>37041</v>
+      </c>
+      <c r="I38">
+        <v>36403</v>
+      </c>
+      <c r="J38">
+        <v>37583</v>
+      </c>
+      <c r="K38">
+        <v>37629</v>
+      </c>
+      <c r="L38">
+        <v>38205</v>
+      </c>
+      <c r="M38">
+        <v>37517</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>15297</v>
+      </c>
+      <c r="C39">
+        <v>15389</v>
+      </c>
+      <c r="D39">
+        <v>15578</v>
+      </c>
+      <c r="E39">
+        <v>15828</v>
+      </c>
+      <c r="F39">
+        <v>15952</v>
+      </c>
+      <c r="G39">
+        <v>16169</v>
+      </c>
+      <c r="H39">
+        <v>16228</v>
+      </c>
+      <c r="I39">
+        <v>15929</v>
+      </c>
+      <c r="J39">
+        <v>16128</v>
+      </c>
+      <c r="K39">
+        <v>16097</v>
+      </c>
+      <c r="L39">
+        <v>16000</v>
+      </c>
+      <c r="M39">
+        <v>16214</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/data/neut_plate_reader_data/HC150036.xlsx
+++ b/data/neut_plate_reader_data/HC150036.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/fh/fast/bloom_j/computational_notebooks/reguia/2020/validation/data/neut_plate_reader_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/bloom_j/computational_notebooks/reguia/2020/validation/data/neut_plate_reader_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172A3D63-03B4-124E-B3F3-A0CDA72CFB3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCFF15C-2B37-4D44-8B40-CA4F55464610}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="460" windowWidth="27800" windowHeight="12580" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="460" yWindow="3540" windowWidth="27800" windowHeight="12580" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F193D" sheetId="5" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="I192E" sheetId="6" r:id="rId5"/>
     <sheet name="F159G" sheetId="7" r:id="rId6"/>
     <sheet name="WT2" sheetId="8" r:id="rId7"/>
+    <sheet name="Feb K189D" sheetId="9" r:id="rId8"/>
+    <sheet name="Feb K189N" sheetId="10" r:id="rId9"/>
+    <sheet name="Feb WT" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -102,6 +105,97 @@
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -662,8 +756,190 @@
 </comments>
 </file>
 
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="85">
   <si>
     <t>Application: Tecan i-control</t>
   </si>
@@ -885,13 +1161,46 @@
   </si>
   <si>
     <t>9:43:30 AM</t>
+  </si>
+  <si>
+    <t>2/21/2020 10:30:12 AM</t>
+  </si>
+  <si>
+    <t>Temperature: 27.5 °C</t>
+  </si>
+  <si>
+    <t>2/21/2020 10:29:15 AM</t>
+  </si>
+  <si>
+    <t>10:28:15 AM</t>
+  </si>
+  <si>
+    <t>2/21/2020 10:27:47 AM</t>
+  </si>
+  <si>
+    <t>2/21/2020 10:26:50 AM</t>
+  </si>
+  <si>
+    <t>10:25:52 AM</t>
+  </si>
+  <si>
+    <t>2/21/2020 10:25:30 AM</t>
+  </si>
+  <si>
+    <t>Temperature: 27.3 °C</t>
+  </si>
+  <si>
+    <t>2/21/2020 10:24:32 AM</t>
+  </si>
+  <si>
+    <t>10:23:33 AM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -919,6 +1228,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1945,6 +2261,609 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD371166-8DEC-9F41-98CA-BDF8DDE03102}">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43882</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>112</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>15468</v>
+      </c>
+      <c r="C32">
+        <v>15800</v>
+      </c>
+      <c r="D32">
+        <v>15663</v>
+      </c>
+      <c r="E32">
+        <v>15784</v>
+      </c>
+      <c r="F32">
+        <v>16256</v>
+      </c>
+      <c r="G32">
+        <v>16318</v>
+      </c>
+      <c r="H32">
+        <v>16043</v>
+      </c>
+      <c r="I32">
+        <v>15908</v>
+      </c>
+      <c r="J32">
+        <v>15950</v>
+      </c>
+      <c r="K32">
+        <v>15940</v>
+      </c>
+      <c r="L32">
+        <v>15664</v>
+      </c>
+      <c r="M32">
+        <v>15204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>20831</v>
+      </c>
+      <c r="C33">
+        <v>20980</v>
+      </c>
+      <c r="D33">
+        <v>21046</v>
+      </c>
+      <c r="E33">
+        <v>20866</v>
+      </c>
+      <c r="F33">
+        <v>21209</v>
+      </c>
+      <c r="G33">
+        <v>21372</v>
+      </c>
+      <c r="H33">
+        <v>20866</v>
+      </c>
+      <c r="I33">
+        <v>20823</v>
+      </c>
+      <c r="J33">
+        <v>21103</v>
+      </c>
+      <c r="K33">
+        <v>20962</v>
+      </c>
+      <c r="L33">
+        <v>20849</v>
+      </c>
+      <c r="M33">
+        <v>20758</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>35625</v>
+      </c>
+      <c r="C34">
+        <v>37067</v>
+      </c>
+      <c r="D34">
+        <v>36615</v>
+      </c>
+      <c r="E34">
+        <v>36871</v>
+      </c>
+      <c r="F34">
+        <v>36852</v>
+      </c>
+      <c r="G34">
+        <v>37526</v>
+      </c>
+      <c r="H34">
+        <v>37057</v>
+      </c>
+      <c r="I34">
+        <v>37138</v>
+      </c>
+      <c r="J34">
+        <v>36879</v>
+      </c>
+      <c r="K34">
+        <v>37013</v>
+      </c>
+      <c r="L34">
+        <v>37042</v>
+      </c>
+      <c r="M34">
+        <v>38276</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>36196</v>
+      </c>
+      <c r="C35">
+        <v>36030</v>
+      </c>
+      <c r="D35">
+        <v>36858</v>
+      </c>
+      <c r="E35">
+        <v>35610</v>
+      </c>
+      <c r="F35">
+        <v>35222</v>
+      </c>
+      <c r="G35">
+        <v>33456</v>
+      </c>
+      <c r="H35">
+        <v>30947</v>
+      </c>
+      <c r="I35">
+        <v>26382</v>
+      </c>
+      <c r="J35">
+        <v>21575</v>
+      </c>
+      <c r="K35">
+        <v>19694</v>
+      </c>
+      <c r="L35">
+        <v>19892</v>
+      </c>
+      <c r="M35">
+        <v>20966</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>36314</v>
+      </c>
+      <c r="C36">
+        <v>36143</v>
+      </c>
+      <c r="D36">
+        <v>35117</v>
+      </c>
+      <c r="E36">
+        <v>34977</v>
+      </c>
+      <c r="F36">
+        <v>33791</v>
+      </c>
+      <c r="G36">
+        <v>32593</v>
+      </c>
+      <c r="H36">
+        <v>29902</v>
+      </c>
+      <c r="I36">
+        <v>27269</v>
+      </c>
+      <c r="J36">
+        <v>21509</v>
+      </c>
+      <c r="K36">
+        <v>19461</v>
+      </c>
+      <c r="L36">
+        <v>20009</v>
+      </c>
+      <c r="M36">
+        <v>20508</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>35472</v>
+      </c>
+      <c r="C37">
+        <v>35311</v>
+      </c>
+      <c r="D37">
+        <v>33118</v>
+      </c>
+      <c r="E37">
+        <v>35406</v>
+      </c>
+      <c r="F37">
+        <v>35040</v>
+      </c>
+      <c r="G37">
+        <v>32564</v>
+      </c>
+      <c r="H37">
+        <v>30577</v>
+      </c>
+      <c r="I37">
+        <v>26661</v>
+      </c>
+      <c r="J37">
+        <v>21310</v>
+      </c>
+      <c r="K37">
+        <v>19544</v>
+      </c>
+      <c r="L37">
+        <v>20213</v>
+      </c>
+      <c r="M37">
+        <v>20592</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>34556</v>
+      </c>
+      <c r="C38">
+        <v>35114</v>
+      </c>
+      <c r="D38">
+        <v>37617</v>
+      </c>
+      <c r="E38">
+        <v>36067</v>
+      </c>
+      <c r="F38">
+        <v>35935</v>
+      </c>
+      <c r="G38">
+        <v>34393</v>
+      </c>
+      <c r="H38">
+        <v>36374</v>
+      </c>
+      <c r="I38">
+        <v>35800</v>
+      </c>
+      <c r="J38">
+        <v>35200</v>
+      </c>
+      <c r="K38">
+        <v>35527</v>
+      </c>
+      <c r="L38">
+        <v>34950</v>
+      </c>
+      <c r="M38">
+        <v>36655</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>14357</v>
+      </c>
+      <c r="C39">
+        <v>15640</v>
+      </c>
+      <c r="D39">
+        <v>14887</v>
+      </c>
+      <c r="E39">
+        <v>15038</v>
+      </c>
+      <c r="F39">
+        <v>15039</v>
+      </c>
+      <c r="G39">
+        <v>15393</v>
+      </c>
+      <c r="H39">
+        <v>15265</v>
+      </c>
+      <c r="I39">
+        <v>15185</v>
+      </c>
+      <c r="J39">
+        <v>15168</v>
+      </c>
+      <c r="K39">
+        <v>14970</v>
+      </c>
+      <c r="L39">
+        <v>14638</v>
+      </c>
+      <c r="M39">
+        <v>14617</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M43"/>
@@ -3752,7 +4671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E8D2A4-5873-7245-854A-E9C778FA63A9}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -5549,4 +6468,1210 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B98A3BB-FF54-5A43-B027-1804A0B66E75}">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43882</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>116</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>20301</v>
+      </c>
+      <c r="C32">
+        <v>20646</v>
+      </c>
+      <c r="D32">
+        <v>20524</v>
+      </c>
+      <c r="E32">
+        <v>20854</v>
+      </c>
+      <c r="F32">
+        <v>21829</v>
+      </c>
+      <c r="G32">
+        <v>21859</v>
+      </c>
+      <c r="H32">
+        <v>21379</v>
+      </c>
+      <c r="I32">
+        <v>21079</v>
+      </c>
+      <c r="J32">
+        <v>21374</v>
+      </c>
+      <c r="K32">
+        <v>21178</v>
+      </c>
+      <c r="L32">
+        <v>21185</v>
+      </c>
+      <c r="M32">
+        <v>20769</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>25179</v>
+      </c>
+      <c r="C33">
+        <v>25090</v>
+      </c>
+      <c r="D33">
+        <v>25266</v>
+      </c>
+      <c r="E33">
+        <v>25117</v>
+      </c>
+      <c r="F33">
+        <v>25782</v>
+      </c>
+      <c r="G33">
+        <v>25833</v>
+      </c>
+      <c r="H33">
+        <v>25298</v>
+      </c>
+      <c r="I33">
+        <v>25366</v>
+      </c>
+      <c r="J33">
+        <v>25608</v>
+      </c>
+      <c r="K33">
+        <v>25383</v>
+      </c>
+      <c r="L33">
+        <v>25322</v>
+      </c>
+      <c r="M33">
+        <v>25652</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>36868</v>
+      </c>
+      <c r="C34">
+        <v>36922</v>
+      </c>
+      <c r="D34">
+        <v>38971</v>
+      </c>
+      <c r="E34">
+        <v>37382</v>
+      </c>
+      <c r="F34">
+        <v>37314</v>
+      </c>
+      <c r="G34">
+        <v>38421</v>
+      </c>
+      <c r="H34">
+        <v>38101</v>
+      </c>
+      <c r="I34">
+        <v>39659</v>
+      </c>
+      <c r="J34">
+        <v>38031</v>
+      </c>
+      <c r="K34">
+        <v>37995</v>
+      </c>
+      <c r="L34">
+        <v>38011</v>
+      </c>
+      <c r="M34">
+        <v>36428</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>37114</v>
+      </c>
+      <c r="C35">
+        <v>37515</v>
+      </c>
+      <c r="D35">
+        <v>38605</v>
+      </c>
+      <c r="E35">
+        <v>38724</v>
+      </c>
+      <c r="F35">
+        <v>39070</v>
+      </c>
+      <c r="G35">
+        <v>38181</v>
+      </c>
+      <c r="H35">
+        <v>36558</v>
+      </c>
+      <c r="I35">
+        <v>34681</v>
+      </c>
+      <c r="J35">
+        <v>31440</v>
+      </c>
+      <c r="K35">
+        <v>27440</v>
+      </c>
+      <c r="L35">
+        <v>25022</v>
+      </c>
+      <c r="M35">
+        <v>25786</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>35954</v>
+      </c>
+      <c r="C36">
+        <v>36831</v>
+      </c>
+      <c r="D36">
+        <v>36665</v>
+      </c>
+      <c r="E36">
+        <v>37841</v>
+      </c>
+      <c r="F36">
+        <v>38242</v>
+      </c>
+      <c r="G36">
+        <v>37897</v>
+      </c>
+      <c r="H36">
+        <v>35894</v>
+      </c>
+      <c r="I36">
+        <v>34009</v>
+      </c>
+      <c r="J36">
+        <v>30036</v>
+      </c>
+      <c r="K36">
+        <v>27063</v>
+      </c>
+      <c r="L36">
+        <v>25387</v>
+      </c>
+      <c r="M36">
+        <v>25828</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>35401</v>
+      </c>
+      <c r="C37">
+        <v>36853</v>
+      </c>
+      <c r="D37">
+        <v>36960</v>
+      </c>
+      <c r="E37">
+        <v>37272</v>
+      </c>
+      <c r="F37">
+        <v>36214</v>
+      </c>
+      <c r="G37">
+        <v>35839</v>
+      </c>
+      <c r="H37">
+        <v>35507</v>
+      </c>
+      <c r="I37">
+        <v>33602</v>
+      </c>
+      <c r="J37">
+        <v>30202</v>
+      </c>
+      <c r="K37">
+        <v>26787</v>
+      </c>
+      <c r="L37">
+        <v>25120</v>
+      </c>
+      <c r="M37">
+        <v>25339</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>35337</v>
+      </c>
+      <c r="C38">
+        <v>36699</v>
+      </c>
+      <c r="D38">
+        <v>36678</v>
+      </c>
+      <c r="E38">
+        <v>38075</v>
+      </c>
+      <c r="F38">
+        <v>37663</v>
+      </c>
+      <c r="G38">
+        <v>36886</v>
+      </c>
+      <c r="H38">
+        <v>37044</v>
+      </c>
+      <c r="I38">
+        <v>38546</v>
+      </c>
+      <c r="J38">
+        <v>37783</v>
+      </c>
+      <c r="K38">
+        <v>36481</v>
+      </c>
+      <c r="L38">
+        <v>37150</v>
+      </c>
+      <c r="M38">
+        <v>36379</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>19027</v>
+      </c>
+      <c r="C39">
+        <v>20177</v>
+      </c>
+      <c r="D39">
+        <v>19515</v>
+      </c>
+      <c r="E39">
+        <v>19920</v>
+      </c>
+      <c r="F39">
+        <v>20237</v>
+      </c>
+      <c r="G39">
+        <v>20231</v>
+      </c>
+      <c r="H39">
+        <v>20209</v>
+      </c>
+      <c r="I39">
+        <v>20427</v>
+      </c>
+      <c r="J39">
+        <v>20001</v>
+      </c>
+      <c r="K39">
+        <v>20053</v>
+      </c>
+      <c r="L39">
+        <v>19730</v>
+      </c>
+      <c r="M39">
+        <v>19653</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16A3711-85E3-B24F-9C21-A1122F5CFBC9}">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43882</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>118</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>22690</v>
+      </c>
+      <c r="C32">
+        <v>23229</v>
+      </c>
+      <c r="D32">
+        <v>22949</v>
+      </c>
+      <c r="E32">
+        <v>22985</v>
+      </c>
+      <c r="F32">
+        <v>24076</v>
+      </c>
+      <c r="G32">
+        <v>24139</v>
+      </c>
+      <c r="H32">
+        <v>23306</v>
+      </c>
+      <c r="I32">
+        <v>23119</v>
+      </c>
+      <c r="J32">
+        <v>23494</v>
+      </c>
+      <c r="K32">
+        <v>23363</v>
+      </c>
+      <c r="L32">
+        <v>23040</v>
+      </c>
+      <c r="M32">
+        <v>22646</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>27926</v>
+      </c>
+      <c r="C33">
+        <v>28065</v>
+      </c>
+      <c r="D33">
+        <v>28294</v>
+      </c>
+      <c r="E33">
+        <v>27965</v>
+      </c>
+      <c r="F33">
+        <v>28418</v>
+      </c>
+      <c r="G33">
+        <v>28679</v>
+      </c>
+      <c r="H33">
+        <v>28120</v>
+      </c>
+      <c r="I33">
+        <v>28059</v>
+      </c>
+      <c r="J33">
+        <v>28257</v>
+      </c>
+      <c r="K33">
+        <v>28024</v>
+      </c>
+      <c r="L33">
+        <v>28196</v>
+      </c>
+      <c r="M33">
+        <v>28116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>37116</v>
+      </c>
+      <c r="C34">
+        <v>37652</v>
+      </c>
+      <c r="D34">
+        <v>38671</v>
+      </c>
+      <c r="E34">
+        <v>37762</v>
+      </c>
+      <c r="F34">
+        <v>38966</v>
+      </c>
+      <c r="G34">
+        <v>37771</v>
+      </c>
+      <c r="H34">
+        <v>38161</v>
+      </c>
+      <c r="I34">
+        <v>39955</v>
+      </c>
+      <c r="J34">
+        <v>39513</v>
+      </c>
+      <c r="K34">
+        <v>38452</v>
+      </c>
+      <c r="L34">
+        <v>37670</v>
+      </c>
+      <c r="M34">
+        <v>37542</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>38090</v>
+      </c>
+      <c r="C35">
+        <v>37178</v>
+      </c>
+      <c r="D35">
+        <v>37515</v>
+      </c>
+      <c r="E35">
+        <v>38514</v>
+      </c>
+      <c r="F35">
+        <v>37073</v>
+      </c>
+      <c r="G35">
+        <v>37581</v>
+      </c>
+      <c r="H35">
+        <v>36224</v>
+      </c>
+      <c r="I35">
+        <v>34367</v>
+      </c>
+      <c r="J35">
+        <v>32162</v>
+      </c>
+      <c r="K35">
+        <v>28808</v>
+      </c>
+      <c r="L35">
+        <v>26795</v>
+      </c>
+      <c r="M35">
+        <v>28430</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>38298</v>
+      </c>
+      <c r="C36">
+        <v>38420</v>
+      </c>
+      <c r="D36">
+        <v>37418</v>
+      </c>
+      <c r="E36">
+        <v>38127</v>
+      </c>
+      <c r="F36">
+        <v>38315</v>
+      </c>
+      <c r="G36">
+        <v>37021</v>
+      </c>
+      <c r="H36">
+        <v>36120</v>
+      </c>
+      <c r="I36">
+        <v>35396</v>
+      </c>
+      <c r="J36">
+        <v>32741</v>
+      </c>
+      <c r="K36">
+        <v>28562</v>
+      </c>
+      <c r="L36">
+        <v>27424</v>
+      </c>
+      <c r="M36">
+        <v>28018</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>36236</v>
+      </c>
+      <c r="C37">
+        <v>36992</v>
+      </c>
+      <c r="D37">
+        <v>36582</v>
+      </c>
+      <c r="E37">
+        <v>37242</v>
+      </c>
+      <c r="F37">
+        <v>36981</v>
+      </c>
+      <c r="G37">
+        <v>35903</v>
+      </c>
+      <c r="H37">
+        <v>35827</v>
+      </c>
+      <c r="I37">
+        <v>35442</v>
+      </c>
+      <c r="J37">
+        <v>32233</v>
+      </c>
+      <c r="K37">
+        <v>28717</v>
+      </c>
+      <c r="L37">
+        <v>27559</v>
+      </c>
+      <c r="M37">
+        <v>27801</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>36183</v>
+      </c>
+      <c r="C38">
+        <v>35710</v>
+      </c>
+      <c r="D38">
+        <v>37034</v>
+      </c>
+      <c r="E38">
+        <v>37580</v>
+      </c>
+      <c r="F38">
+        <v>37351</v>
+      </c>
+      <c r="G38">
+        <v>37527</v>
+      </c>
+      <c r="H38">
+        <v>37505</v>
+      </c>
+      <c r="I38">
+        <v>37093</v>
+      </c>
+      <c r="J38">
+        <v>37110</v>
+      </c>
+      <c r="K38">
+        <v>37362</v>
+      </c>
+      <c r="L38">
+        <v>36716</v>
+      </c>
+      <c r="M38">
+        <v>36627</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>21013</v>
+      </c>
+      <c r="C39">
+        <v>22427</v>
+      </c>
+      <c r="D39">
+        <v>21402</v>
+      </c>
+      <c r="E39">
+        <v>21708</v>
+      </c>
+      <c r="F39">
+        <v>22011</v>
+      </c>
+      <c r="G39">
+        <v>21912</v>
+      </c>
+      <c r="H39">
+        <v>22019</v>
+      </c>
+      <c r="I39">
+        <v>22023</v>
+      </c>
+      <c r="J39">
+        <v>21638</v>
+      </c>
+      <c r="K39">
+        <v>21719</v>
+      </c>
+      <c r="L39">
+        <v>21191</v>
+      </c>
+      <c r="M39">
+        <v>21197</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>